--- a/diem_danh_giay_11_09_24_12_32_04.xlsx
+++ b/diem_danh_giay_11_09_24_12_32_04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15880"/>
+    <workbookView windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>lamhdph19404@fpt.edu.vn</t>
   </si>
   <si>
-    <t>A</t>
+    <t>P</t>
   </si>
   <si>
     <t>PH22549</t>
@@ -56,6 +56,9 @@
     <t>tuannaph22549@fpt.edu.vn</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>PH27836</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t>thuyntqph27836@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>PH29101</t>
@@ -354,10 +354,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -387,40 +387,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,7 +402,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -445,29 +429,6 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,6 +470,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -516,8 +485,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,9 +500,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,7 +547,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,13 +577,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,13 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,67 +703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,67 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,41 +756,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,26 +789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -853,151 +803,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,8 +1416,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1425,7 +1425,7 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="4" max="4" width="28.578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1633,7 +1633,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1662,16 +1662,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1709,7 +1709,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1747,7 +1747,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1785,7 +1785,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1823,7 +1823,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1861,7 +1861,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1937,7 +1937,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1975,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2013,7 +2013,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2051,7 +2051,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2089,7 +2089,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2203,7 +2203,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2241,7 +2241,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2317,7 +2317,7 @@
         <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2355,7 +2355,7 @@
         <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2393,7 +2393,7 @@
         <v>73</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2431,7 +2431,7 @@
         <v>76</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2469,7 +2469,7 @@
         <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2507,7 +2507,7 @@
         <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2545,7 +2545,7 @@
         <v>85</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2583,7 +2583,7 @@
         <v>88</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2659,7 +2659,7 @@
         <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2697,7 +2697,7 @@
         <v>97</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2735,7 +2735,7 @@
         <v>100</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>

--- a/diem_danh_giay_11_09_24_12_32_04.xlsx
+++ b/diem_danh_giay_11_09_24_12_32_04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17380"/>
+    <workbookView windowHeight="15980"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>tuannaph22549@fpt.edu.vn</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>PH27836</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>hoangdvph31004@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>PH32380</t>
@@ -356,8 +356,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -387,8 +387,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,16 +403,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,36 +419,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,8 +434,44 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,14 +492,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -501,10 +500,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,15 +514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -532,9 +524,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -547,7 +547,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,67 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,19 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,43 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,31 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,9 +758,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,7 +786,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,32 +802,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,165 +830,174 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,8 +1416,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1633,7 +1633,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1662,13 +1662,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1700,13 +1700,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -1738,16 +1738,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1785,7 +1785,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1823,7 +1823,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1937,7 +1937,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1975,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2051,7 +2051,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2089,7 +2089,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2279,7 +2279,7 @@
         <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2431,7 +2431,7 @@
         <v>76</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2469,7 +2469,7 @@
         <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2659,7 +2659,7 @@
         <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>

--- a/diem_danh_giay_11_09_24_12_32_04.xlsx
+++ b/diem_danh_giay_11_09_24_12_32_04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15980"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>lamhdph19404@fpt.edu.vn</t>
   </si>
   <si>
-    <t>P</t>
+    <t>A</t>
   </si>
   <si>
     <t>PH22549</t>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>tuannaph22549@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
   <si>
     <t>PH27836</t>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>hoangdvph31004@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>PH32380</t>
@@ -354,10 +354,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -387,14 +387,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -403,10 +395,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,27 +424,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,18 +446,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -479,7 +463,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,8 +476,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,27 +515,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -547,7 +547,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +607,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,13 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,67 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,73 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,6 +758,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -778,30 +826,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,175 +853,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,8 +1416,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1633,7 +1633,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1662,16 +1662,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1700,16 +1700,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1738,16 +1738,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1785,7 +1785,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1823,7 +1823,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1861,7 +1861,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1899,7 +1899,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1937,7 +1937,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1975,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2013,7 +2013,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2089,7 +2089,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2127,7 +2127,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2203,7 +2203,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2241,7 +2241,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2279,7 +2279,7 @@
         <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2317,7 +2317,7 @@
         <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2355,7 +2355,7 @@
         <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2393,7 +2393,7 @@
         <v>73</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2431,7 +2431,7 @@
         <v>76</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2469,7 +2469,7 @@
         <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2507,7 +2507,7 @@
         <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2583,7 +2583,7 @@
         <v>88</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2621,7 +2621,7 @@
         <v>91</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2659,7 +2659,7 @@
         <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2735,7 +2735,7 @@
         <v>100</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
